--- a/ORTEST.xlsx
+++ b/ORTEST.xlsx
@@ -4,49 +4,74 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId1" sheetId="1" name="Ürün Kısıt"/>
+    <sheet r:id="rId2" sheetId="2" name="Ürün Satış"/>
+    <sheet r:id="rId3" sheetId="3" name="T-shirt Üretici"/>
+    <sheet r:id="rId4" sheetId="4" name="Şort Üretici"/>
+    <sheet r:id="rId5" sheetId="5" name="Kazak Üretici"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+  <si>
+    <t>Şort Üretici</t>
+  </si>
+  <si>
+    <t>Birim Maliyet</t>
+  </si>
+  <si>
+    <t>Kapasite</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T-shirt Üretici</t>
+  </si>
   <si>
     <t>Ürün</t>
   </si>
   <si>
+    <t>Satış Fiyatı</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>Şort</t>
+  </si>
+  <si>
+    <t>Kazak</t>
+  </si>
+  <si>
     <t>Üretim Kapasite Sınırı</t>
   </si>
   <si>
     <t>Maliyet Sınırı</t>
   </si>
   <si>
-    <t>İş Gücü</t>
-  </si>
-  <si>
-    <t>Üretim Maliyeti</t>
-  </si>
-  <si>
-    <t>Satış Fiyatı</t>
-  </si>
-  <si>
-    <t>Kar</t>
-  </si>
-  <si>
-    <t>Satış Olasılık</t>
-  </si>
-  <si>
-    <t>T-shirt</t>
-  </si>
-  <si>
     <t>Sort</t>
-  </si>
-  <si>
-    <t>Kazak</t>
   </si>
   <si>
     <t>Toplam Maliyet</t>
@@ -57,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,12 +93,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -105,39 +124,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -152,16 +168,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="H1:H5" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="H1:H5"/>
-  <tableColumns count="1">
-    <tableColumn name="Satış Olasılık" id="1" totalsRowLabel="Total"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,20 +458,304 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="11.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
+        <v>150000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>105000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>40000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="3">
+        <v>6000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="7">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="7">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="7">
+        <v>29.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>63000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="7.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -475,121 +765,175 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="3">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3">
+        <v>97035</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B3" s="3">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>94673</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B4" s="3">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20974</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B5" s="3">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
+        <v>59966</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+      <c r="B6" s="3">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>28613</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
-        <v>80000</v>
-      </c>
-      <c r="C2" s="5">
-        <v>500000</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="5">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5">
-        <v>9000</v>
-      </c>
-      <c r="C3" s="5">
-        <v>200000</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5">
-        <v>40</v>
-      </c>
-      <c r="G3" s="5">
-        <v>28</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2500</v>
-      </c>
-      <c r="C4" s="5">
-        <v>150000</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.554</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5">
-        <v>1500000</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="B7" s="3">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3">
+        <v>93695</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="7.862142857142857" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3">
+        <v>86891</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3">
+        <v>21300</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3">
+        <v>95070</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3">
+        <v>52337</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50413</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
+        <v>41262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ORTEST.xlsx
+++ b/ORTEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Ürün - Kısıt"/>
@@ -232,7 +232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +243,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -279,16 +285,16 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -300,41 +306,41 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,7 +1016,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1707,7 +1713,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="10">
-        <v>750</v>
+        <v>368</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -1718,7 +1724,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="10">
-        <v>900</v>
+        <v>253</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -1729,7 +1735,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="10">
-        <v>1250</v>
+        <v>370</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -1740,7 +1746,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="10">
-        <v>1100</v>
+        <v>252</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -1751,7 +1757,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="10">
-        <v>200</v>
+        <v>247</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -1762,7 +1768,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="10">
-        <v>1300</v>
+        <v>243</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -1773,7 +1779,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="10">
-        <v>1100</v>
+        <v>633</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -1784,7 +1790,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="10">
-        <v>850</v>
+        <v>327</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -1795,7 +1801,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="10">
-        <v>1000</v>
+        <v>405</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -1806,7 +1812,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="10">
-        <v>300</v>
+        <v>564</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -1817,7 +1823,7 @@
         <v>57</v>
       </c>
       <c r="C12" s="10">
-        <v>1000</v>
+        <v>739</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -1828,7 +1834,7 @@
         <v>58</v>
       </c>
       <c r="C13" s="10">
-        <v>750</v>
+        <v>699</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
@@ -1839,7 +1845,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="10">
-        <v>1000</v>
+        <v>654</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -1850,7 +1856,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="10">
-        <v>1650</v>
+        <v>749</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -1861,7 +1867,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="10">
-        <v>1800</v>
+        <v>728</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -1872,7 +1878,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="10">
-        <v>2200</v>
+        <v>555</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -1883,7 +1889,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="10">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -1894,7 +1900,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="10">
-        <v>1000</v>
+        <v>659</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
@@ -1905,7 +1911,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="10">
-        <v>1400</v>
+        <v>653</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
@@ -1916,7 +1922,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="10">
-        <v>900</v>
+        <v>596</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -1927,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="10">
-        <v>1300</v>
+        <v>436</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
@@ -1938,7 +1944,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="10">
-        <v>750</v>
+        <v>620</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -1949,7 +1955,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="10">
-        <v>350</v>
+        <v>866</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -1960,7 +1966,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="10">
-        <v>150</v>
+        <v>752</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
@@ -1971,7 +1977,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="10">
-        <v>650</v>
+        <v>545</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
@@ -1982,7 +1988,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="10">
-        <v>857</v>
+        <v>513</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
@@ -1993,7 +1999,7 @@
         <v>50</v>
       </c>
       <c r="C28" s="10">
-        <v>200</v>
+        <v>726</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
@@ -2037,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="10">
-        <v>487</v>
+        <v>526</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
@@ -2048,7 +2054,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="10">
-        <v>92</v>
+        <v>643</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
@@ -2059,7 +2065,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="10">
-        <v>912</v>
+        <v>1223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
@@ -2092,7 +2098,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="10">
-        <v>543</v>
+        <v>655</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
@@ -2103,7 +2109,7 @@
         <v>58</v>
       </c>
       <c r="C38" s="10">
-        <v>504</v>
+        <v>783</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
@@ -2136,7 +2142,7 @@
         <v>58</v>
       </c>
       <c r="C41" s="10">
-        <v>567</v>
+        <v>693</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
@@ -2147,7 +2153,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="10">
-        <v>900</v>
+        <v>753</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
@@ -2158,7 +2164,7 @@
         <v>33</v>
       </c>
       <c r="C43" s="10">
-        <v>750</v>
+        <v>791</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -2169,7 +2175,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="10">
-        <v>20</v>
+        <v>365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -2180,7 +2186,7 @@
         <v>33</v>
       </c>
       <c r="C45" s="10">
-        <v>21</v>
+        <v>362</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -2191,7 +2197,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="10">
-        <v>30</v>
+        <v>1045</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
@@ -2202,7 +2208,7 @@
         <v>33</v>
       </c>
       <c r="C47" s="10">
-        <v>35</v>
+        <v>1151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -2235,7 +2241,7 @@
         <v>38</v>
       </c>
       <c r="C50" s="10">
-        <v>14</v>
+        <v>203</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -2246,7 +2252,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="10">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -2257,7 +2263,7 @@
         <v>38</v>
       </c>
       <c r="C52" s="10">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -2268,7 +2274,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="10">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
@@ -2279,7 +2285,7 @@
         <v>38</v>
       </c>
       <c r="C54" s="10">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
@@ -2290,7 +2296,7 @@
         <v>52</v>
       </c>
       <c r="C55" s="10">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
@@ -2323,7 +2329,7 @@
         <v>50</v>
       </c>
       <c r="C58" s="10">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
@@ -2334,7 +2340,7 @@
         <v>53</v>
       </c>
       <c r="C59" s="10">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
@@ -2345,7 +2351,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="10">
-        <v>10</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
@@ -2356,7 +2362,7 @@
         <v>17</v>
       </c>
       <c r="C61" s="10">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
@@ -2367,7 +2373,7 @@
         <v>33</v>
       </c>
       <c r="C62" s="10">
-        <v>26</v>
+        <v>202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
@@ -2378,7 +2384,7 @@
         <v>59</v>
       </c>
       <c r="C63" s="10">
-        <v>35</v>
+        <v>180</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
@@ -2389,7 +2395,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="10">
-        <v>901</v>
+        <v>1185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
@@ -2400,7 +2406,7 @@
         <v>33</v>
       </c>
       <c r="C65" s="10">
-        <v>856</v>
+        <v>946</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
@@ -2422,7 +2428,7 @@
         <v>17</v>
       </c>
       <c r="C67" s="10">
-        <v>100</v>
+        <v>348</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
@@ -2433,7 +2439,7 @@
         <v>33</v>
       </c>
       <c r="C68" s="10">
-        <v>102</v>
+        <v>420</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
@@ -2444,7 +2450,7 @@
         <v>59</v>
       </c>
       <c r="C69" s="10">
-        <v>104</v>
+        <v>452</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
@@ -2477,7 +2483,7 @@
         <v>59</v>
       </c>
       <c r="C72" s="10">
-        <v>520</v>
+        <v>680</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -2488,7 +2494,7 @@
         <v>25</v>
       </c>
       <c r="C73" s="10">
-        <v>10</v>
+        <v>377</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -2499,7 +2505,7 @@
         <v>53</v>
       </c>
       <c r="C74" s="10">
-        <v>12</v>
+        <v>310</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -2510,7 +2516,7 @@
         <v>47</v>
       </c>
       <c r="C75" s="10">
-        <v>50</v>
+        <v>830</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
@@ -2521,7 +2527,7 @@
         <v>38</v>
       </c>
       <c r="C76" s="10">
-        <v>40</v>
+        <v>754</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -2532,7 +2538,7 @@
         <v>39</v>
       </c>
       <c r="C77" s="10">
-        <v>15</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2553,7 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2571,7 +2577,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2579,7 +2585,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -2587,7 +2593,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -2595,7 +2601,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>64550</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -2619,7 +2625,7 @@
         <v>25300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>62890</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2651,7 +2657,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2659,7 +2665,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -2667,7 +2673,7 @@
         <v>79250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>42650</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2745,19 +2751,19 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="3"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="3"/>
+      <c r="N1" s="2"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="3"/>
+      <c r="P1" s="2"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="3"/>
+      <c r="R1" s="2"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="3"/>
+      <c r="T1" s="2"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="3"/>
+      <c r="V1" s="2"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="3"/>
+      <c r="X1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
@@ -2997,7 +3003,7 @@
         <v>362</v>
       </c>
       <c r="W5" s="1"/>
-      <c r="X5" s="3"/>
+      <c r="X5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5" t="s">
@@ -3179,7 +3185,7 @@
         <v>1041</v>
       </c>
       <c r="W8" s="1"/>
-      <c r="X8" s="3"/>
+      <c r="X8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="5" t="s">
@@ -3547,7 +3553,7 @@
         <v>643</v>
       </c>
       <c r="W14" s="5"/>
-      <c r="X14" s="3"/>
+      <c r="X14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5" t="s">
@@ -3605,7 +3611,7 @@
         <v>377</v>
       </c>
       <c r="W15" s="5"/>
-      <c r="X15" s="3"/>
+      <c r="X15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5" t="s">
@@ -3719,9 +3725,9 @@
         <v>1223</v>
       </c>
       <c r="U17" s="1"/>
-      <c r="V17" s="3"/>
+      <c r="V17" s="2"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="3"/>
+      <c r="X17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5" t="s">
@@ -3805,19 +3811,19 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="2"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="3"/>
+      <c r="P19" s="2"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="3"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="3"/>
+      <c r="T19" s="2"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="3"/>
+      <c r="V19" s="2"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="3"/>
+      <c r="X19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5" t="s">
@@ -3839,19 +3845,19 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="3"/>
+      <c r="N20" s="2"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="3"/>
+      <c r="P20" s="2"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="3"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="3"/>
+      <c r="T20" s="2"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="3"/>
+      <c r="V20" s="2"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="3"/>
+      <c r="X20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5" t="s">
@@ -3873,19 +3879,19 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="3"/>
+      <c r="N21" s="2"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="3"/>
+      <c r="P21" s="2"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="3"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="3"/>
+      <c r="T21" s="2"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="3"/>
+      <c r="V21" s="2"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="3"/>
+      <c r="X21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
@@ -3905,19 +3911,19 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="3"/>
+      <c r="N22" s="2"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="3"/>
+      <c r="P22" s="2"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="3"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="3"/>
+      <c r="T22" s="2"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="3"/>
+      <c r="V22" s="2"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="3"/>
+      <c r="X22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
@@ -3937,19 +3943,19 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="3"/>
+      <c r="N23" s="2"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="3"/>
+      <c r="P23" s="2"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="3"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="3"/>
+      <c r="T23" s="2"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="3"/>
+      <c r="V23" s="2"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="3"/>
+      <c r="X23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
@@ -3969,19 +3975,19 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="3"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="3"/>
+      <c r="P24" s="2"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="3"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="3"/>
+      <c r="T24" s="2"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="3"/>
+      <c r="V24" s="2"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="3"/>
+      <c r="X24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
@@ -4001,19 +4007,19 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="3"/>
+      <c r="N25" s="2"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="3"/>
+      <c r="P25" s="2"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="3"/>
+      <c r="R25" s="2"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="3"/>
+      <c r="T25" s="2"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="3"/>
+      <c r="V25" s="2"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="3"/>
+      <c r="X25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
@@ -4033,19 +4039,19 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="3"/>
+      <c r="N26" s="2"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="3"/>
+      <c r="P26" s="2"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="3"/>
+      <c r="R26" s="2"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="3"/>
+      <c r="T26" s="2"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="3"/>
+      <c r="V26" s="2"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="3"/>
+      <c r="X26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
@@ -4065,19 +4071,19 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="3"/>
+      <c r="N27" s="2"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="3"/>
+      <c r="P27" s="2"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="3"/>
+      <c r="R27" s="2"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="3"/>
+      <c r="T27" s="2"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="3"/>
+      <c r="V27" s="2"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="3"/>
+      <c r="X27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
@@ -4097,19 +4103,19 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="3"/>
+      <c r="N28" s="2"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="3"/>
+      <c r="P28" s="2"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="3"/>
+      <c r="R28" s="2"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="3"/>
+      <c r="T28" s="2"/>
       <c r="U28" s="1"/>
-      <c r="V28" s="3"/>
+      <c r="V28" s="2"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="3"/>
+      <c r="X28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
@@ -4129,19 +4135,19 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="3"/>
+      <c r="N29" s="2"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="3"/>
+      <c r="P29" s="2"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="3"/>
+      <c r="R29" s="2"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="3"/>
+      <c r="T29" s="2"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="3"/>
+      <c r="V29" s="2"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="3"/>
+      <c r="X29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1"/>
@@ -4161,19 +4167,19 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="3"/>
+      <c r="N30" s="2"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="3"/>
+      <c r="P30" s="2"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="3"/>
+      <c r="R30" s="2"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="3"/>
+      <c r="T30" s="2"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="3"/>
+      <c r="V30" s="2"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="3"/>
+      <c r="X30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
@@ -4193,19 +4199,19 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="3"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="3"/>
+      <c r="P31" s="2"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="3"/>
+      <c r="R31" s="2"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="3"/>
+      <c r="T31" s="2"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="3"/>
+      <c r="V31" s="2"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="3"/>
+      <c r="X31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1"/>
@@ -4225,19 +4231,19 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="3"/>
+      <c r="N32" s="2"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="3"/>
+      <c r="P32" s="2"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="2"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="3"/>
+      <c r="T32" s="2"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="3"/>
+      <c r="V32" s="2"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="3"/>
+      <c r="X32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
@@ -4257,19 +4263,19 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="3"/>
+      <c r="N33" s="2"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="3"/>
+      <c r="P33" s="2"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="3"/>
+      <c r="R33" s="2"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="3"/>
+      <c r="T33" s="2"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="3"/>
+      <c r="V33" s="2"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="3"/>
+      <c r="X33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1"/>
@@ -4289,19 +4295,19 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="3"/>
+      <c r="N34" s="2"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="3"/>
+      <c r="P34" s="2"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="3"/>
+      <c r="R34" s="2"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="3"/>
+      <c r="T34" s="2"/>
       <c r="U34" s="1"/>
-      <c r="V34" s="3"/>
+      <c r="V34" s="2"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="3"/>
+      <c r="X34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1"/>
@@ -4321,19 +4327,19 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="3"/>
+      <c r="N35" s="2"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="3"/>
+      <c r="P35" s="2"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="3"/>
+      <c r="R35" s="2"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="3"/>
+      <c r="T35" s="2"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="3"/>
+      <c r="V35" s="2"/>
       <c r="W35" s="1"/>
-      <c r="X35" s="3"/>
+      <c r="X35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1"/>
@@ -4353,19 +4359,19 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="3"/>
+      <c r="N36" s="2"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="3"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="3"/>
+      <c r="R36" s="2"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="3"/>
+      <c r="T36" s="2"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="3"/>
+      <c r="V36" s="2"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="3"/>
+      <c r="X36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1"/>
@@ -4385,19 +4391,19 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="3"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="3"/>
+      <c r="N37" s="2"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="3"/>
+      <c r="P37" s="2"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="3"/>
+      <c r="R37" s="2"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="3"/>
+      <c r="T37" s="2"/>
       <c r="U37" s="1"/>
-      <c r="V37" s="3"/>
+      <c r="V37" s="2"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="3"/>
+      <c r="X37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1"/>
@@ -4417,19 +4423,19 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="3"/>
+      <c r="L38" s="2"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="3"/>
+      <c r="N38" s="2"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="3"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="3"/>
+      <c r="R38" s="2"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="3"/>
+      <c r="T38" s="2"/>
       <c r="U38" s="1"/>
-      <c r="V38" s="3"/>
+      <c r="V38" s="2"/>
       <c r="W38" s="1"/>
-      <c r="X38" s="3"/>
+      <c r="X38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1"/>
@@ -4449,19 +4455,19 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="3"/>
+      <c r="L39" s="2"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="3"/>
+      <c r="N39" s="2"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="3"/>
+      <c r="P39" s="2"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="3"/>
+      <c r="R39" s="2"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="3"/>
+      <c r="T39" s="2"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="3"/>
+      <c r="V39" s="2"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="3"/>
+      <c r="X39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1"/>
@@ -4481,19 +4487,19 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="3"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="3"/>
+      <c r="N40" s="2"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="3"/>
+      <c r="P40" s="2"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="3"/>
+      <c r="R40" s="2"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="3"/>
+      <c r="T40" s="2"/>
       <c r="U40" s="1"/>
-      <c r="V40" s="3"/>
+      <c r="V40" s="2"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="3"/>
+      <c r="X40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1"/>
@@ -4513,19 +4519,19 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="3"/>
+      <c r="L41" s="2"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="3"/>
+      <c r="N41" s="2"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="3"/>
+      <c r="P41" s="2"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="3"/>
+      <c r="R41" s="2"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="3"/>
+      <c r="T41" s="2"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="3"/>
+      <c r="V41" s="2"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="3"/>
+      <c r="X41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1"/>
@@ -4545,19 +4551,19 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="3"/>
+      <c r="L42" s="2"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="3"/>
+      <c r="N42" s="2"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="3"/>
+      <c r="P42" s="2"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="3"/>
+      <c r="R42" s="2"/>
       <c r="S42" s="1"/>
-      <c r="T42" s="3"/>
+      <c r="T42" s="2"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="3"/>
+      <c r="V42" s="2"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="3"/>
+      <c r="X42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1"/>
@@ -4577,19 +4583,19 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="3"/>
+      <c r="L43" s="2"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="3"/>
+      <c r="N43" s="2"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="3"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="3"/>
+      <c r="R43" s="2"/>
       <c r="S43" s="1"/>
-      <c r="T43" s="3"/>
+      <c r="T43" s="2"/>
       <c r="U43" s="1"/>
-      <c r="V43" s="3"/>
+      <c r="V43" s="2"/>
       <c r="W43" s="1"/>
-      <c r="X43" s="3"/>
+      <c r="X43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1"/>
@@ -4609,19 +4615,19 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="2"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="3"/>
+      <c r="N44" s="2"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="3"/>
+      <c r="P44" s="2"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="3"/>
+      <c r="R44" s="2"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="3"/>
+      <c r="T44" s="2"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="3"/>
+      <c r="V44" s="2"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="3"/>
+      <c r="X44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1"/>
@@ -4641,19 +4647,19 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="2"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="3"/>
+      <c r="N45" s="2"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="3"/>
+      <c r="P45" s="2"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="3"/>
+      <c r="R45" s="2"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="3"/>
+      <c r="T45" s="2"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="3"/>
+      <c r="V45" s="2"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="3"/>
+      <c r="X45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1"/>
@@ -4673,19 +4679,19 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="3"/>
+      <c r="L46" s="2"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="3"/>
+      <c r="N46" s="2"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="3"/>
+      <c r="P46" s="2"/>
       <c r="Q46" s="1"/>
-      <c r="R46" s="3"/>
+      <c r="R46" s="2"/>
       <c r="S46" s="1"/>
-      <c r="T46" s="3"/>
+      <c r="T46" s="2"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="3"/>
+      <c r="V46" s="2"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="3"/>
+      <c r="X46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1"/>
@@ -4705,19 +4711,19 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="3"/>
+      <c r="L47" s="2"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="3"/>
+      <c r="N47" s="2"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="3"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="3"/>
+      <c r="R47" s="2"/>
       <c r="S47" s="1"/>
-      <c r="T47" s="3"/>
+      <c r="T47" s="2"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="3"/>
+      <c r="V47" s="2"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="3"/>
+      <c r="X47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1"/>
@@ -4737,19 +4743,19 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="3"/>
+      <c r="L48" s="2"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="3"/>
+      <c r="N48" s="2"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="3"/>
+      <c r="P48" s="2"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="3"/>
+      <c r="R48" s="2"/>
       <c r="S48" s="1"/>
-      <c r="T48" s="3"/>
+      <c r="T48" s="2"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="3"/>
+      <c r="V48" s="2"/>
       <c r="W48" s="1"/>
-      <c r="X48" s="3"/>
+      <c r="X48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1"/>
@@ -4769,19 +4775,19 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="3"/>
+      <c r="L49" s="2"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="3"/>
+      <c r="N49" s="2"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="3"/>
+      <c r="P49" s="2"/>
       <c r="Q49" s="1"/>
-      <c r="R49" s="3"/>
+      <c r="R49" s="2"/>
       <c r="S49" s="1"/>
-      <c r="T49" s="3"/>
+      <c r="T49" s="2"/>
       <c r="U49" s="1"/>
-      <c r="V49" s="3"/>
+      <c r="V49" s="2"/>
       <c r="W49" s="1"/>
-      <c r="X49" s="3"/>
+      <c r="X49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1"/>
@@ -4801,19 +4807,19 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="3"/>
+      <c r="L50" s="2"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="3"/>
+      <c r="N50" s="2"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="3"/>
+      <c r="P50" s="2"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="3"/>
+      <c r="R50" s="2"/>
       <c r="S50" s="1"/>
-      <c r="T50" s="3"/>
+      <c r="T50" s="2"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="3"/>
+      <c r="V50" s="2"/>
       <c r="W50" s="1"/>
-      <c r="X50" s="3"/>
+      <c r="X50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1"/>
@@ -4833,19 +4839,19 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="3"/>
+      <c r="L51" s="2"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="3"/>
+      <c r="N51" s="2"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="3"/>
+      <c r="P51" s="2"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="3"/>
+      <c r="R51" s="2"/>
       <c r="S51" s="1"/>
-      <c r="T51" s="3"/>
+      <c r="T51" s="2"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="3"/>
+      <c r="V51" s="2"/>
       <c r="W51" s="1"/>
-      <c r="X51" s="3"/>
+      <c r="X51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1"/>
@@ -4865,19 +4871,19 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="3"/>
+      <c r="L52" s="2"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="3"/>
+      <c r="N52" s="2"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="3"/>
+      <c r="P52" s="2"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="3"/>
+      <c r="R52" s="2"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="3"/>
+      <c r="T52" s="2"/>
       <c r="U52" s="1"/>
-      <c r="V52" s="3"/>
+      <c r="V52" s="2"/>
       <c r="W52" s="1"/>
-      <c r="X52" s="3"/>
+      <c r="X52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1"/>
@@ -4897,19 +4903,19 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="3"/>
+      <c r="L53" s="2"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="3"/>
+      <c r="N53" s="2"/>
       <c r="O53" s="1"/>
-      <c r="P53" s="3"/>
+      <c r="P53" s="2"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="3"/>
+      <c r="R53" s="2"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="3"/>
+      <c r="T53" s="2"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="3"/>
+      <c r="V53" s="2"/>
       <c r="W53" s="1"/>
-      <c r="X53" s="3"/>
+      <c r="X53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1"/>
@@ -4929,19 +4935,19 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="3"/>
+      <c r="L54" s="2"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="3"/>
+      <c r="N54" s="2"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="3"/>
+      <c r="P54" s="2"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="3"/>
+      <c r="R54" s="2"/>
       <c r="S54" s="1"/>
-      <c r="T54" s="3"/>
+      <c r="T54" s="2"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="3"/>
+      <c r="V54" s="2"/>
       <c r="W54" s="1"/>
-      <c r="X54" s="3"/>
+      <c r="X54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1"/>
@@ -4961,19 +4967,19 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="3"/>
+      <c r="L55" s="2"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="3"/>
+      <c r="N55" s="2"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="3"/>
+      <c r="P55" s="2"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="3"/>
+      <c r="R55" s="2"/>
       <c r="S55" s="1"/>
-      <c r="T55" s="3"/>
+      <c r="T55" s="2"/>
       <c r="U55" s="1"/>
-      <c r="V55" s="3"/>
+      <c r="V55" s="2"/>
       <c r="W55" s="1"/>
-      <c r="X55" s="3"/>
+      <c r="X55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1"/>
@@ -4993,19 +4999,19 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="3"/>
+      <c r="L56" s="2"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="3"/>
+      <c r="N56" s="2"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="3"/>
+      <c r="P56" s="2"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="3"/>
+      <c r="R56" s="2"/>
       <c r="S56" s="1"/>
-      <c r="T56" s="3"/>
+      <c r="T56" s="2"/>
       <c r="U56" s="1"/>
-      <c r="V56" s="3"/>
+      <c r="V56" s="2"/>
       <c r="W56" s="1"/>
-      <c r="X56" s="3"/>
+      <c r="X56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1"/>
@@ -5025,19 +5031,19 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="3"/>
+      <c r="L57" s="2"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="3"/>
+      <c r="N57" s="2"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="3"/>
+      <c r="P57" s="2"/>
       <c r="Q57" s="1"/>
-      <c r="R57" s="3"/>
+      <c r="R57" s="2"/>
       <c r="S57" s="1"/>
-      <c r="T57" s="3"/>
+      <c r="T57" s="2"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="3"/>
+      <c r="V57" s="2"/>
       <c r="W57" s="1"/>
-      <c r="X57" s="3"/>
+      <c r="X57" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1"/>
@@ -5057,19 +5063,19 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="3"/>
+      <c r="L58" s="2"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="3"/>
+      <c r="N58" s="2"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="3"/>
+      <c r="P58" s="2"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="3"/>
+      <c r="R58" s="2"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="3"/>
+      <c r="T58" s="2"/>
       <c r="U58" s="1"/>
-      <c r="V58" s="3"/>
+      <c r="V58" s="2"/>
       <c r="W58" s="1"/>
-      <c r="X58" s="3"/>
+      <c r="X58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1"/>
@@ -5089,19 +5095,19 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="3"/>
+      <c r="L59" s="2"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="3"/>
+      <c r="N59" s="2"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="3"/>
+      <c r="P59" s="2"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="3"/>
+      <c r="R59" s="2"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="3"/>
+      <c r="T59" s="2"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="3"/>
+      <c r="V59" s="2"/>
       <c r="W59" s="1"/>
-      <c r="X59" s="3"/>
+      <c r="X59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1"/>
@@ -5121,19 +5127,19 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="3"/>
+      <c r="L60" s="2"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="3"/>
+      <c r="N60" s="2"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="3"/>
+      <c r="P60" s="2"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="3"/>
+      <c r="R60" s="2"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="3"/>
+      <c r="T60" s="2"/>
       <c r="U60" s="1"/>
-      <c r="V60" s="3"/>
+      <c r="V60" s="2"/>
       <c r="W60" s="1"/>
-      <c r="X60" s="3"/>
+      <c r="X60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1"/>
@@ -5153,19 +5159,19 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="3"/>
+      <c r="L61" s="2"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="3"/>
+      <c r="N61" s="2"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="3"/>
+      <c r="P61" s="2"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="3"/>
+      <c r="R61" s="2"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="3"/>
+      <c r="T61" s="2"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="3"/>
+      <c r="V61" s="2"/>
       <c r="W61" s="1"/>
-      <c r="X61" s="3"/>
+      <c r="X61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1"/>
@@ -5185,19 +5191,19 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="3"/>
+      <c r="L62" s="2"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="3"/>
+      <c r="N62" s="2"/>
       <c r="O62" s="1"/>
-      <c r="P62" s="3"/>
+      <c r="P62" s="2"/>
       <c r="Q62" s="1"/>
-      <c r="R62" s="3"/>
+      <c r="R62" s="2"/>
       <c r="S62" s="1"/>
-      <c r="T62" s="3"/>
+      <c r="T62" s="2"/>
       <c r="U62" s="1"/>
-      <c r="V62" s="3"/>
+      <c r="V62" s="2"/>
       <c r="W62" s="1"/>
-      <c r="X62" s="3"/>
+      <c r="X62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1"/>
@@ -5217,19 +5223,19 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="3"/>
+      <c r="L63" s="2"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="3"/>
+      <c r="N63" s="2"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="3"/>
+      <c r="P63" s="2"/>
       <c r="Q63" s="1"/>
-      <c r="R63" s="3"/>
+      <c r="R63" s="2"/>
       <c r="S63" s="1"/>
-      <c r="T63" s="3"/>
+      <c r="T63" s="2"/>
       <c r="U63" s="1"/>
-      <c r="V63" s="3"/>
+      <c r="V63" s="2"/>
       <c r="W63" s="1"/>
-      <c r="X63" s="3"/>
+      <c r="X63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1"/>
@@ -5249,19 +5255,19 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="3"/>
+      <c r="L64" s="2"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="3"/>
+      <c r="N64" s="2"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="3"/>
+      <c r="P64" s="2"/>
       <c r="Q64" s="1"/>
-      <c r="R64" s="3"/>
+      <c r="R64" s="2"/>
       <c r="S64" s="1"/>
-      <c r="T64" s="3"/>
+      <c r="T64" s="2"/>
       <c r="U64" s="1"/>
-      <c r="V64" s="3"/>
+      <c r="V64" s="2"/>
       <c r="W64" s="1"/>
-      <c r="X64" s="3"/>
+      <c r="X64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1"/>
@@ -5281,19 +5287,19 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="3"/>
+      <c r="L65" s="2"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="3"/>
+      <c r="N65" s="2"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="3"/>
+      <c r="P65" s="2"/>
       <c r="Q65" s="1"/>
-      <c r="R65" s="3"/>
+      <c r="R65" s="2"/>
       <c r="S65" s="1"/>
-      <c r="T65" s="3"/>
+      <c r="T65" s="2"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="3"/>
+      <c r="V65" s="2"/>
       <c r="W65" s="1"/>
-      <c r="X65" s="3"/>
+      <c r="X65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1"/>
@@ -5313,19 +5319,19 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="3"/>
+      <c r="L66" s="2"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="3"/>
+      <c r="N66" s="2"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="3"/>
+      <c r="P66" s="2"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="3"/>
+      <c r="R66" s="2"/>
       <c r="S66" s="1"/>
-      <c r="T66" s="3"/>
+      <c r="T66" s="2"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="3"/>
+      <c r="V66" s="2"/>
       <c r="W66" s="1"/>
-      <c r="X66" s="3"/>
+      <c r="X66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1"/>
@@ -5345,19 +5351,19 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="3"/>
+      <c r="L67" s="2"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="3"/>
+      <c r="N67" s="2"/>
       <c r="O67" s="1"/>
-      <c r="P67" s="3"/>
+      <c r="P67" s="2"/>
       <c r="Q67" s="1"/>
-      <c r="R67" s="3"/>
+      <c r="R67" s="2"/>
       <c r="S67" s="1"/>
-      <c r="T67" s="3"/>
+      <c r="T67" s="2"/>
       <c r="U67" s="1"/>
-      <c r="V67" s="3"/>
+      <c r="V67" s="2"/>
       <c r="W67" s="1"/>
-      <c r="X67" s="3"/>
+      <c r="X67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1"/>
@@ -5377,19 +5383,19 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="3"/>
+      <c r="L68" s="2"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="3"/>
+      <c r="N68" s="2"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="3"/>
+      <c r="P68" s="2"/>
       <c r="Q68" s="1"/>
-      <c r="R68" s="3"/>
+      <c r="R68" s="2"/>
       <c r="S68" s="1"/>
-      <c r="T68" s="3"/>
+      <c r="T68" s="2"/>
       <c r="U68" s="1"/>
-      <c r="V68" s="3"/>
+      <c r="V68" s="2"/>
       <c r="W68" s="1"/>
-      <c r="X68" s="3"/>
+      <c r="X68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1"/>
@@ -5409,19 +5415,19 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="3"/>
+      <c r="L69" s="2"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="3"/>
+      <c r="N69" s="2"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="3"/>
+      <c r="P69" s="2"/>
       <c r="Q69" s="1"/>
-      <c r="R69" s="3"/>
+      <c r="R69" s="2"/>
       <c r="S69" s="1"/>
-      <c r="T69" s="3"/>
+      <c r="T69" s="2"/>
       <c r="U69" s="1"/>
-      <c r="V69" s="3"/>
+      <c r="V69" s="2"/>
       <c r="W69" s="1"/>
-      <c r="X69" s="3"/>
+      <c r="X69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1"/>
@@ -5441,19 +5447,19 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="3"/>
+      <c r="L70" s="2"/>
       <c r="M70" s="1"/>
-      <c r="N70" s="3"/>
+      <c r="N70" s="2"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="3"/>
+      <c r="P70" s="2"/>
       <c r="Q70" s="1"/>
-      <c r="R70" s="3"/>
+      <c r="R70" s="2"/>
       <c r="S70" s="1"/>
-      <c r="T70" s="3"/>
+      <c r="T70" s="2"/>
       <c r="U70" s="1"/>
-      <c r="V70" s="3"/>
+      <c r="V70" s="2"/>
       <c r="W70" s="1"/>
-      <c r="X70" s="3"/>
+      <c r="X70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1"/>
@@ -5473,19 +5479,19 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="3"/>
+      <c r="L71" s="2"/>
       <c r="M71" s="1"/>
-      <c r="N71" s="3"/>
+      <c r="N71" s="2"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="3"/>
+      <c r="P71" s="2"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="3"/>
+      <c r="R71" s="2"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="3"/>
+      <c r="T71" s="2"/>
       <c r="U71" s="1"/>
-      <c r="V71" s="3"/>
+      <c r="V71" s="2"/>
       <c r="W71" s="1"/>
-      <c r="X71" s="3"/>
+      <c r="X71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1"/>
@@ -5505,19 +5511,19 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="3"/>
+      <c r="L72" s="2"/>
       <c r="M72" s="1"/>
-      <c r="N72" s="3"/>
+      <c r="N72" s="2"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="3"/>
+      <c r="P72" s="2"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="3"/>
+      <c r="R72" s="2"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="3"/>
+      <c r="T72" s="2"/>
       <c r="U72" s="1"/>
-      <c r="V72" s="3"/>
+      <c r="V72" s="2"/>
       <c r="W72" s="1"/>
-      <c r="X72" s="3"/>
+      <c r="X72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1"/>
@@ -5537,19 +5543,19 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="3"/>
+      <c r="L73" s="2"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="3"/>
+      <c r="N73" s="2"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="3"/>
+      <c r="P73" s="2"/>
       <c r="Q73" s="1"/>
-      <c r="R73" s="3"/>
+      <c r="R73" s="2"/>
       <c r="S73" s="1"/>
-      <c r="T73" s="3"/>
+      <c r="T73" s="2"/>
       <c r="U73" s="1"/>
-      <c r="V73" s="3"/>
+      <c r="V73" s="2"/>
       <c r="W73" s="1"/>
-      <c r="X73" s="3"/>
+      <c r="X73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1"/>
@@ -5569,19 +5575,19 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="3"/>
+      <c r="L74" s="2"/>
       <c r="M74" s="1"/>
-      <c r="N74" s="3"/>
+      <c r="N74" s="2"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="3"/>
+      <c r="P74" s="2"/>
       <c r="Q74" s="1"/>
-      <c r="R74" s="3"/>
+      <c r="R74" s="2"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="3"/>
+      <c r="T74" s="2"/>
       <c r="U74" s="1"/>
-      <c r="V74" s="3"/>
+      <c r="V74" s="2"/>
       <c r="W74" s="1"/>
-      <c r="X74" s="3"/>
+      <c r="X74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1"/>
@@ -5601,19 +5607,19 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-      <c r="L75" s="3"/>
+      <c r="L75" s="2"/>
       <c r="M75" s="1"/>
-      <c r="N75" s="3"/>
+      <c r="N75" s="2"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="3"/>
+      <c r="P75" s="2"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="3"/>
+      <c r="R75" s="2"/>
       <c r="S75" s="1"/>
-      <c r="T75" s="3"/>
+      <c r="T75" s="2"/>
       <c r="U75" s="1"/>
-      <c r="V75" s="3"/>
+      <c r="V75" s="2"/>
       <c r="W75" s="1"/>
-      <c r="X75" s="3"/>
+      <c r="X75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1"/>
@@ -5633,19 +5639,19 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="3"/>
+      <c r="L76" s="2"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="3"/>
+      <c r="N76" s="2"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="3"/>
+      <c r="P76" s="2"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="3"/>
+      <c r="R76" s="2"/>
       <c r="S76" s="1"/>
-      <c r="T76" s="3"/>
+      <c r="T76" s="2"/>
       <c r="U76" s="1"/>
-      <c r="V76" s="3"/>
+      <c r="V76" s="2"/>
       <c r="W76" s="1"/>
-      <c r="X76" s="3"/>
+      <c r="X76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1"/>
@@ -5665,19 +5671,19 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="3"/>
+      <c r="L77" s="2"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="3"/>
+      <c r="N77" s="2"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="3"/>
+      <c r="P77" s="2"/>
       <c r="Q77" s="1"/>
-      <c r="R77" s="3"/>
+      <c r="R77" s="2"/>
       <c r="S77" s="1"/>
-      <c r="T77" s="3"/>
+      <c r="T77" s="2"/>
       <c r="U77" s="1"/>
-      <c r="V77" s="3"/>
+      <c r="V77" s="2"/>
       <c r="W77" s="1"/>
-      <c r="X77" s="3"/>
+      <c r="X77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1"/>
@@ -5697,19 +5703,19 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-      <c r="L78" s="3"/>
+      <c r="L78" s="2"/>
       <c r="M78" s="1"/>
-      <c r="N78" s="3"/>
+      <c r="N78" s="2"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="3"/>
+      <c r="P78" s="2"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="3"/>
+      <c r="R78" s="2"/>
       <c r="S78" s="1"/>
-      <c r="T78" s="3"/>
+      <c r="T78" s="2"/>
       <c r="U78" s="1"/>
-      <c r="V78" s="3"/>
+      <c r="V78" s="2"/>
       <c r="W78" s="1"/>
-      <c r="X78" s="3"/>
+      <c r="X78" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ORTEST.xlsx
+++ b/ORTEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Ürün - Kısıt"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="69">
   <si>
     <t>Ürün</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Genel Toplam</t>
+  </si>
+  <si>
+    <t>Alt Kapasite</t>
+  </si>
+  <si>
+    <t>Üst Kapasite</t>
   </si>
   <si>
     <t>Satış Fiyatı</t>
@@ -232,19 +238,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -291,10 +291,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -303,25 +300,19 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -334,9 +325,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -650,357 +638,357 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="11.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>65</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>115387.95</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>133607.1</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>84425.55</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>97755.90000000001</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>43546.1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>50421.8</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>33381.1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>38651.8</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>30941.5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>35827</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>25608.199999999997</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>29651.600000000002</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>20507.649999999998</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>23745.7</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>19232.75</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>22269.5</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>18434.75</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>21345.5</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>17764.05</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>20568.9</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>17383.1</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>20127.800000000003</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>17324.2</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>20059.600000000002</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>14765.849999999999</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>17097.300000000003</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>14555.9</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>16854.2</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>11384.8</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>13182.400000000001</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>10193.5</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>11803.000000000002</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>7758.65</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>8983.7</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>5801.65</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>6717.700000000001</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>3408.6</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>3946.8</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>3131.2</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>3625.6000000000004</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>2194.5</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>2541</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>2014.9499999999998</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>2333.1000000000004</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>1229.3</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>1423.4</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>1144.75</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>1325.5</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="7">
         <v>1043.1</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>1207.8000000000002</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="7">
         <v>729.5999999999999</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>844.8000000000001</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="7">
         <v>528.1999999999999</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>611.6</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="10">
+        <v>68</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="7">
         <v>500000000</v>
       </c>
     </row>
@@ -1016,660 +1004,660 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="7">
         <v>2020</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="7">
         <v>2021</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="7">
         <v>2022</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="7">
         <v>2023</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="7">
         <v>2024</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>61</v>
+      <c r="G1" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <v>0.6118829484758763</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.6977330214335977</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>0.733466637954902</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>0.5577168820105068</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0.7400729452252163</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="7">
         <v>750</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>0.4841173521884811</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0.6042356142163852</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0.6772485999868577</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>0.5002447802270502</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>0.6352721421418043</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="7">
         <v>900</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>0.36688571886520277</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>0.5808009461546043</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0.6033361267408915</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>0.38413652130822595</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>0.5861075963174659</v>
       </c>
-      <c r="G4" s="10">
-        <v>1250</v>
+      <c r="G4" s="7">
+        <v>1800</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>0.5764032011991114</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>0.7271020059752454</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>0.7669283611383709</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>0.42388645779604334</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>0.5227389151346121</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>1100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="B6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="10">
         <v>0.3717361302787745</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>0.49284617746392384</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>0.32593064762876084</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>0.6198416933475631</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>0.6963623101075133</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>0.49524689219874535</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>0.5795741207894346</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>1300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>0.3934584598399117</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>0.6685523270763692</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>0.663756784453638</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>0.42369540408756096</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>0.5691388335572335</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="7">
         <v>1100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>0.35874873084175407</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>0.6223691695108078</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>0.5877814088598402</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>0.42803948223890304</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>0.6238577426525068</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <v>850</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>0.2967300133716925</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>0.5507822685788788</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>0.5727445619874004</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>0.531123293003341</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>0.5438804431847462</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
+        <v>1800</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.4234826805620809</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.549631498572472</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.5781063823286793</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.4666380817309278</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.7648537354938767</v>
+      </c>
+      <c r="G11" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.6788398951643098</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.7542273261596889</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.7999179851689847</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.5836646998460749</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.6170073232047218</v>
+      </c>
+      <c r="G12" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="13">
-        <v>0.4234826805620809</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.549631498572472</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.5781063823286793</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.4666380817309278</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.7648537354938767</v>
-      </c>
-      <c r="G11" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="13">
-        <v>0.6788398951643098</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.7542273261596889</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.7999179851689847</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0.5836646998460749</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.6170073232047218</v>
-      </c>
-      <c r="G12" s="10">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.2871951219512195</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.475765107969551</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.5872051465332381</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.42162240184757505</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.44072164948453607</v>
+      </c>
+      <c r="G13" s="7">
+        <v>750</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.6449983708048224</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.6987890158621866</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.5834117712197553</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.6197521428181471</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.6388728044779001</v>
+      </c>
+      <c r="G14" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="13">
-        <v>0.2871951219512195</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.475765107969551</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.5872051465332381</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.42162240184757505</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0.44072164948453607</v>
-      </c>
-      <c r="G13" s="10">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.43131063518213436</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.6842913184376599</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.7843813387423935</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.5714104676213407</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.6093851977548623</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1650</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.6937099483606047</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.7474259974259975</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.7134561418132311</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.47628108919382506</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.5093457943925234</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1800</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.5060071574642127</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.3509785647716682</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2600</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.7004784688995215</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.21235521235521235</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.6242304309586632</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.6874005142647239</v>
+      </c>
+      <c r="G18" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.7373271889400922</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.8470474346563408</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.6370722433460076</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.5500245619780579</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.31091370558375636</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.5617283950617284</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.6488294314381271</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.10588592233009708</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.36863136863136864</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.668967587034814</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.47144159827571913</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.3206472196900638</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.5216450216450217</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1300</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.3082099596231494</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.24516737388024518</v>
+      </c>
+      <c r="G23" s="7">
         <v>750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="13">
-        <v>0.6449983708048224</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0.6987890158621866</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.5834117712197553</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.6197521428181471</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.6388728044779001</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="13">
-        <v>0.43131063518213436</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.6842913184376599</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.7843813387423935</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0.5714104676213407</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0.6093851977548623</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1650</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0.6937099483606047</v>
-      </c>
-      <c r="C16" s="13">
-        <v>0.7474259974259975</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0.7134561418132311</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0.47628108919382506</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0.5093457943925234</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1800</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0.5060071574642127</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.3509785647716682</v>
-      </c>
-      <c r="G17" s="10">
-        <v>2200</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0.7004784688995215</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0.21235521235521235</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.6242304309586632</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.6874005142647239</v>
-      </c>
-      <c r="G18" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="13">
-        <v>0.7373271889400922</v>
-      </c>
-      <c r="D19" s="13">
-        <v>0.8470474346563408</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.6370722433460076</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0.5500245619780579</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0.31091370558375636</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0.5617283950617284</v>
-      </c>
-      <c r="F20" s="13">
-        <v>0.6488294314381271</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1400</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0.10588592233009708</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1500</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="13">
-        <v>0.36863136863136864</v>
-      </c>
-      <c r="C22" s="13">
-        <v>0.668967587034814</v>
-      </c>
-      <c r="D22" s="13">
-        <v>0.47144159827571913</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0.3206472196900638</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0.5216450216450217</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1300</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0.3082099596231494</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0.24516737388024518</v>
-      </c>
-      <c r="G23" s="10">
-        <v>750</v>
-      </c>
-    </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="B24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="10">
         <v>0.8270893371757925</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="10">
         <v>0.7867078825347759</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="7">
         <v>350</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="B25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="10">
         <v>0.5112490302560124</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="10">
         <v>0.6473029045643154</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="7">
         <v>150</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="13">
+      <c r="B26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="10">
         <v>0.6958105646630237</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="7">
         <v>650</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="10">
         <v>0.441402497598463</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="10">
         <v>0.6749680715197957</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="10">
         <v>0.7056936647955092</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="10">
         <v>0.7626397019691326</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="10">
         <v>0.7981770833333334</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="7">
         <v>857</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="13">
+      <c r="B28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="10">
         <v>0.6844660194174758</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="13">
+      <c r="E28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="10">
         <v>0.7158273381294964</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="7">
         <v>200</v>
       </c>
     </row>
@@ -1689,9 +1677,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1701,7 +1689,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1712,7 +1700,7 @@
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>368</v>
       </c>
     </row>
@@ -1723,7 +1711,7 @@
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>253</v>
       </c>
     </row>
@@ -1734,7 +1722,7 @@
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>370</v>
       </c>
     </row>
@@ -1745,7 +1733,7 @@
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>252</v>
       </c>
     </row>
@@ -1756,7 +1744,7 @@
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>247</v>
       </c>
     </row>
@@ -1767,7 +1755,7 @@
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>243</v>
       </c>
     </row>
@@ -1778,7 +1766,7 @@
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>633</v>
       </c>
     </row>
@@ -1789,7 +1777,7 @@
       <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>327</v>
       </c>
     </row>
@@ -1800,7 +1788,7 @@
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>405</v>
       </c>
     </row>
@@ -1811,7 +1799,7 @@
       <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>564</v>
       </c>
     </row>
@@ -1822,7 +1810,7 @@
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>739</v>
       </c>
     </row>
@@ -1833,7 +1821,7 @@
       <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>699</v>
       </c>
     </row>
@@ -1844,7 +1832,7 @@
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>654</v>
       </c>
     </row>
@@ -1855,7 +1843,7 @@
       <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>749</v>
       </c>
     </row>
@@ -1866,7 +1854,7 @@
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>728</v>
       </c>
     </row>
@@ -1877,7 +1865,7 @@
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>555</v>
       </c>
     </row>
@@ -1888,7 +1876,7 @@
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>409</v>
       </c>
     </row>
@@ -1899,7 +1887,7 @@
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>659</v>
       </c>
     </row>
@@ -1910,7 +1898,7 @@
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>653</v>
       </c>
     </row>
@@ -1921,7 +1909,7 @@
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>596</v>
       </c>
     </row>
@@ -1932,7 +1920,7 @@
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>436</v>
       </c>
     </row>
@@ -1943,7 +1931,7 @@
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>620</v>
       </c>
     </row>
@@ -1954,7 +1942,7 @@
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>866</v>
       </c>
     </row>
@@ -1965,7 +1953,7 @@
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>752</v>
       </c>
     </row>
@@ -1976,7 +1964,7 @@
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>545</v>
       </c>
     </row>
@@ -1987,7 +1975,7 @@
       <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>513</v>
       </c>
     </row>
@@ -1998,7 +1986,7 @@
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>726</v>
       </c>
     </row>
@@ -2009,7 +1997,7 @@
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <v>339</v>
       </c>
     </row>
@@ -2020,7 +2008,7 @@
       <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="7">
         <v>326</v>
       </c>
     </row>
@@ -2031,7 +2019,7 @@
       <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>329</v>
       </c>
     </row>
@@ -2042,7 +2030,7 @@
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="7">
         <v>526</v>
       </c>
     </row>
@@ -2053,7 +2041,7 @@
       <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="7">
         <v>643</v>
       </c>
     </row>
@@ -2064,7 +2052,7 @@
       <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <v>1223</v>
       </c>
     </row>
@@ -2075,7 +2063,7 @@
       <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="7">
         <v>878</v>
       </c>
     </row>
@@ -2086,7 +2074,7 @@
       <c r="B36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="7">
         <v>504</v>
       </c>
     </row>
@@ -2097,7 +2085,7 @@
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="7">
         <v>655</v>
       </c>
     </row>
@@ -2108,7 +2096,7 @@
       <c r="B38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="7">
         <v>783</v>
       </c>
     </row>
@@ -2119,7 +2107,7 @@
       <c r="B39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="7">
         <v>509</v>
       </c>
     </row>
@@ -2130,7 +2118,7 @@
       <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="7">
         <v>457</v>
       </c>
     </row>
@@ -2141,7 +2129,7 @@
       <c r="B41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <v>693</v>
       </c>
     </row>
@@ -2152,7 +2140,7 @@
       <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="7">
         <v>753</v>
       </c>
     </row>
@@ -2163,7 +2151,7 @@
       <c r="B43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="7">
         <v>791</v>
       </c>
     </row>
@@ -2174,7 +2162,7 @@
       <c r="B44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <v>365</v>
       </c>
     </row>
@@ -2185,7 +2173,7 @@
       <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>362</v>
       </c>
     </row>
@@ -2196,7 +2184,7 @@
       <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>1045</v>
       </c>
     </row>
@@ -2207,7 +2195,7 @@
       <c r="B47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <v>1151</v>
       </c>
     </row>
@@ -2218,7 +2206,7 @@
       <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="7">
         <v>164</v>
       </c>
     </row>
@@ -2229,7 +2217,7 @@
       <c r="B49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="7">
         <v>148</v>
       </c>
     </row>
@@ -2240,7 +2228,7 @@
       <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="7">
         <v>203</v>
       </c>
     </row>
@@ -2251,7 +2239,7 @@
       <c r="B51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="7">
         <v>147</v>
       </c>
     </row>
@@ -2262,7 +2250,7 @@
       <c r="B52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="7">
         <v>104</v>
       </c>
     </row>
@@ -2273,7 +2261,7 @@
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="7">
         <v>70</v>
       </c>
     </row>
@@ -2284,7 +2272,7 @@
       <c r="B54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="7">
         <v>104</v>
       </c>
     </row>
@@ -2295,7 +2283,7 @@
       <c r="B55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="7">
         <v>99</v>
       </c>
     </row>
@@ -2306,7 +2294,7 @@
       <c r="B56" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="7">
         <v>519</v>
       </c>
     </row>
@@ -2317,7 +2305,7 @@
       <c r="B57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="7">
         <v>388</v>
       </c>
     </row>
@@ -2328,7 +2316,7 @@
       <c r="B58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="7">
         <v>90</v>
       </c>
     </row>
@@ -2339,7 +2327,7 @@
       <c r="B59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="7">
         <v>124</v>
       </c>
     </row>
@@ -2350,7 +2338,7 @@
       <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="7">
         <v>111</v>
       </c>
     </row>
@@ -2361,7 +2349,7 @@
       <c r="B61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="7">
         <v>173</v>
       </c>
     </row>
@@ -2372,7 +2360,7 @@
       <c r="B62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="7">
         <v>202</v>
       </c>
     </row>
@@ -2383,7 +2371,7 @@
       <c r="B63" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="7">
         <v>180</v>
       </c>
     </row>
@@ -2394,7 +2382,7 @@
       <c r="B64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="7">
         <v>1185</v>
       </c>
     </row>
@@ -2405,7 +2393,7 @@
       <c r="B65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="7">
         <v>946</v>
       </c>
     </row>
@@ -2416,7 +2404,7 @@
       <c r="B66" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="7">
         <v>877</v>
       </c>
     </row>
@@ -2427,7 +2415,7 @@
       <c r="B67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="7">
         <v>348</v>
       </c>
     </row>
@@ -2438,7 +2426,7 @@
       <c r="B68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="7">
         <v>420</v>
       </c>
     </row>
@@ -2449,7 +2437,7 @@
       <c r="B69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="7">
         <v>452</v>
       </c>
     </row>
@@ -2460,7 +2448,7 @@
       <c r="B70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="7">
         <v>591</v>
       </c>
     </row>
@@ -2471,7 +2459,7 @@
       <c r="B71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="7">
         <v>466</v>
       </c>
     </row>
@@ -2482,7 +2470,7 @@
       <c r="B72" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="7">
         <v>680</v>
       </c>
     </row>
@@ -2493,7 +2481,7 @@
       <c r="B73" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="7">
         <v>377</v>
       </c>
     </row>
@@ -2504,7 +2492,7 @@
       <c r="B74" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="7">
         <v>310</v>
       </c>
     </row>
@@ -2515,8 +2503,8 @@
       <c r="B75" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C75" s="10">
-        <v>830</v>
+      <c r="C75" s="7">
+        <v>500</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
@@ -2526,8 +2514,8 @@
       <c r="B76" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="10">
-        <v>754</v>
+      <c r="C76" s="7">
+        <v>502</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -2537,8 +2525,8 @@
       <c r="B77" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="10">
-        <v>599</v>
+      <c r="C77" s="7">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -2551,29 +2539,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
+        <v>8500</v>
+      </c>
+      <c r="C2" s="7">
         <v>50000</v>
       </c>
     </row>
@@ -2581,7 +2576,10 @@
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
+        <v>6000</v>
+      </c>
+      <c r="C3" s="7">
         <v>45000</v>
       </c>
     </row>
@@ -2589,15 +2587,21 @@
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="10">
-        <v>96000</v>
+      <c r="B4" s="8">
+        <v>6500</v>
+      </c>
+      <c r="C4" s="7">
+        <v>105000</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
+        <v>4850</v>
+      </c>
+      <c r="C5" s="7">
         <v>40000</v>
       </c>
     </row>
@@ -2605,7 +2609,10 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="7">
         <v>36000</v>
       </c>
     </row>
@@ -2613,7 +2620,10 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
+        <v>4800</v>
+      </c>
+      <c r="C7" s="7">
         <v>64550</v>
       </c>
     </row>
@@ -2621,7 +2631,10 @@
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
+        <v>3600</v>
+      </c>
+      <c r="C8" s="7">
         <v>25300</v>
       </c>
     </row>
@@ -2629,7 +2642,10 @@
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
+        <v>2500</v>
+      </c>
+      <c r="C9" s="7">
         <v>62890</v>
       </c>
     </row>
@@ -2637,7 +2653,10 @@
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
+        <v>2500</v>
+      </c>
+      <c r="C10" s="7">
         <v>22500</v>
       </c>
     </row>
@@ -2645,7 +2664,10 @@
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
+        <v>2500</v>
+      </c>
+      <c r="C11" s="7">
         <v>78000</v>
       </c>
     </row>
@@ -2653,7 +2675,10 @@
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
+        <v>4500</v>
+      </c>
+      <c r="C12" s="7">
         <v>46000</v>
       </c>
     </row>
@@ -2661,7 +2686,10 @@
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
+        <v>4000</v>
+      </c>
+      <c r="C13" s="7">
         <v>65000</v>
       </c>
     </row>
@@ -2669,7 +2697,10 @@
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="7">
         <v>79250</v>
       </c>
     </row>
@@ -2677,7 +2708,10 @@
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C15" s="7">
         <v>30000</v>
       </c>
     </row>
@@ -2685,7 +2719,10 @@
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C16" s="7">
         <v>42650</v>
       </c>
     </row>
@@ -2693,7 +2730,10 @@
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
+        <v>3300</v>
+      </c>
+      <c r="C17" s="7">
         <v>95500</v>
       </c>
     </row>
@@ -2713,30 +2753,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2836,7 +2876,7 @@
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>368</v>
       </c>
       <c r="H3" s="1"/>
@@ -2845,43 +2885,43 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
         <v>50000</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="2">
         <v>368</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="2">
         <v>339</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="2">
         <v>150</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="2">
         <v>555</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="2">
         <v>436</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="2">
         <v>728</v>
       </c>
     </row>
@@ -2898,7 +2938,7 @@
       <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>253</v>
       </c>
       <c r="H4" s="1"/>
@@ -2907,48 +2947,48 @@
       <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <v>45000</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <v>513</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="2">
         <v>326</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="2">
         <v>625</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="2">
         <v>693</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="2">
         <v>310</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="2">
         <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1"/>
@@ -2960,7 +3000,7 @@
       <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>370</v>
       </c>
       <c r="H5" s="1"/>
@@ -2969,44 +3009,44 @@
       <c r="K5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>96000</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <v>633</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <f>RANDBETWEEN(800,1100)</f>
       </c>
       <c r="Q5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="2">
         <v>125</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="2">
         <v>800</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="2">
         <v>362</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1"/>
@@ -3018,7 +3058,7 @@
       <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>252</v>
       </c>
       <c r="H6" s="1"/>
@@ -3027,48 +3067,48 @@
       <c r="K6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>40000</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2">
         <v>327</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="2">
         <v>620</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="2">
         <v>452</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="2">
         <v>878</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="2">
         <v>202</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="2">
         <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1"/>
@@ -3080,7 +3120,7 @@
       <c r="F7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>247</v>
       </c>
       <c r="H7" s="1"/>
@@ -3089,48 +3129,48 @@
       <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>36000</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="2">
         <v>253</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <f>RANDBETWEEN(800,1100)</f>
       </c>
       <c r="Q7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="2">
         <v>540</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="2">
         <v>1000</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="2">
         <v>180</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="2">
         <v>501</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1"/>
@@ -3142,7 +3182,7 @@
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>243</v>
       </c>
       <c r="H8" s="1"/>
@@ -3151,44 +3191,44 @@
       <c r="K8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <v>64550</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="2">
         <v>726</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <v>866</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="2">
         <v>300</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="2">
         <v>783</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="2">
         <v>1041</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1"/>
@@ -3200,7 +3240,7 @@
       <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>633</v>
       </c>
       <c r="H9" s="1"/>
@@ -3209,48 +3249,48 @@
       <c r="K9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>25300</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="2">
         <v>405</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <v>752</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="2">
         <v>70</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="2">
         <v>699</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="2">
         <v>1039</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="2">
         <v>148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="1"/>
@@ -3262,7 +3302,7 @@
       <c r="F10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>327</v>
       </c>
       <c r="H10" s="1"/>
@@ -3271,48 +3311,48 @@
       <c r="K10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>62890</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="2">
         <v>370</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <v>447</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="2">
         <v>509</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="2">
         <v>599</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="2">
         <v>350</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="2">
         <v>519</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="1"/>
@@ -3324,7 +3364,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>405</v>
       </c>
       <c r="H11" s="1"/>
@@ -3333,48 +3373,48 @@
       <c r="K11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>22500</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="2">
         <v>545</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="2">
         <v>203</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="2">
         <v>457</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="2">
         <v>409</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="2">
         <v>653</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="2">
         <v>388</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="1"/>
@@ -3386,7 +3426,7 @@
       <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>564</v>
       </c>
       <c r="H12" s="1"/>
@@ -3395,48 +3435,48 @@
       <c r="K12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <v>78000</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="2">
         <f>RANDBETWEEN(800,1100)</f>
       </c>
       <c r="O12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="2">
         <v>104</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="2">
         <v>830</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="2">
         <v>596</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="2">
         <v>596</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="2">
         <v>402</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="1"/>
@@ -3448,7 +3488,7 @@
       <c r="F13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>739</v>
       </c>
       <c r="H13" s="1"/>
@@ -3457,48 +3497,48 @@
       <c r="K13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <v>46000</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="2">
         <v>564</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="2">
         <v>591</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="2">
         <v>754</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="2">
         <v>739</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="2">
         <v>526</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="2">
         <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="1"/>
@@ -3510,7 +3550,7 @@
       <c r="F14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>699</v>
       </c>
       <c r="H14" s="1"/>
@@ -3519,44 +3559,44 @@
       <c r="K14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <v>65000</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="2">
         <v>739</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="2">
         <v>680</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="2">
         <v>348</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="2">
         <v>654</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="2">
         <v>643</v>
       </c>
-      <c r="W14" s="5"/>
+      <c r="W14" s="4"/>
       <c r="X14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="1"/>
@@ -3568,7 +3608,7 @@
       <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>654</v>
       </c>
       <c r="H15" s="1"/>
@@ -3577,44 +3617,44 @@
       <c r="K15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <v>79250</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="2">
         <v>252</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="2">
         <v>147</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="2">
         <v>420</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="2">
         <v>753</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="2">
         <v>377</v>
       </c>
-      <c r="W15" s="5"/>
+      <c r="W15" s="4"/>
       <c r="X15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="1"/>
@@ -3626,7 +3666,7 @@
       <c r="F16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>749</v>
       </c>
       <c r="H16" s="1"/>
@@ -3635,48 +3675,48 @@
       <c r="K16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>30000</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2">
         <v>247</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="2">
         <v>360</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="2">
         <v>400</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="2">
         <v>791</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="2">
         <v>365</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="2">
         <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="1"/>
@@ -3688,7 +3728,7 @@
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>728</v>
       </c>
       <c r="H17" s="1"/>
@@ -3697,31 +3737,31 @@
       <c r="K17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <v>42650</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="2">
         <f>RANDBETWEEN(800,1100)</f>
       </c>
       <c r="O17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="2">
         <v>610</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="2">
         <v>504</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="2">
         <v>1223</v>
       </c>
       <c r="U17" s="1"/>
@@ -3730,7 +3770,7 @@
       <c r="X17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1"/>
@@ -3742,7 +3782,7 @@
       <c r="F18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>555</v>
       </c>
       <c r="H18" s="1"/>
@@ -3751,48 +3791,48 @@
       <c r="K18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <v>95500</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="2">
         <v>243</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="2">
         <v>590</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="2">
         <v>655</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="2">
         <v>1151</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="2">
         <v>173</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="2">
         <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="1"/>
@@ -3804,7 +3844,7 @@
       <c r="F19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <v>409</v>
       </c>
       <c r="H19" s="1"/>
@@ -3826,7 +3866,7 @@
       <c r="X19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1"/>
@@ -3838,7 +3878,7 @@
       <c r="F20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <v>659</v>
       </c>
       <c r="H20" s="1"/>
@@ -3860,7 +3900,7 @@
       <c r="X20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="1"/>
@@ -3872,7 +3912,7 @@
       <c r="F21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>653</v>
       </c>
       <c r="H21" s="1"/>
@@ -3904,7 +3944,7 @@
       <c r="F22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <v>596</v>
       </c>
       <c r="H22" s="1"/>
@@ -3936,7 +3976,7 @@
       <c r="F23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>436</v>
       </c>
       <c r="H23" s="1"/>
@@ -3968,7 +4008,7 @@
       <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="2">
         <v>620</v>
       </c>
       <c r="H24" s="1"/>
@@ -4000,7 +4040,7 @@
       <c r="F25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="2">
         <v>866</v>
       </c>
       <c r="H25" s="1"/>
@@ -4032,7 +4072,7 @@
       <c r="F26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="2">
         <v>752</v>
       </c>
       <c r="H26" s="1"/>
@@ -4064,7 +4104,7 @@
       <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="2">
         <v>545</v>
       </c>
       <c r="H27" s="1"/>
@@ -4096,7 +4136,7 @@
       <c r="F28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="2">
         <v>513</v>
       </c>
       <c r="H28" s="1"/>
@@ -4128,7 +4168,7 @@
       <c r="F29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="2">
         <v>726</v>
       </c>
       <c r="H29" s="1"/>
@@ -4160,7 +4200,7 @@
       <c r="F30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="2">
         <v>339</v>
       </c>
       <c r="H30" s="1"/>
@@ -4192,7 +4232,7 @@
       <c r="F31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="2">
         <v>326</v>
       </c>
       <c r="H31" s="1"/>
@@ -4224,7 +4264,7 @@
       <c r="F32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="2">
         <v>329</v>
       </c>
       <c r="H32" s="1"/>
@@ -4256,7 +4296,7 @@
       <c r="F33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="2">
         <v>526</v>
       </c>
       <c r="H33" s="1"/>
@@ -4288,7 +4328,7 @@
       <c r="F34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="2">
         <v>643</v>
       </c>
       <c r="H34" s="1"/>
@@ -4320,7 +4360,7 @@
       <c r="F35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="2">
         <v>1223</v>
       </c>
       <c r="H35" s="1"/>
@@ -4352,7 +4392,7 @@
       <c r="F36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="2">
         <v>878</v>
       </c>
       <c r="H36" s="1"/>
@@ -4384,7 +4424,7 @@
       <c r="F37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="2">
         <v>504</v>
       </c>
       <c r="H37" s="1"/>
@@ -4416,7 +4456,7 @@
       <c r="F38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="2">
         <v>655</v>
       </c>
       <c r="H38" s="1"/>
@@ -4448,7 +4488,7 @@
       <c r="F39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="2">
         <v>783</v>
       </c>
       <c r="H39" s="1"/>
@@ -4480,7 +4520,7 @@
       <c r="F40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="2">
         <v>509</v>
       </c>
       <c r="H40" s="1"/>
@@ -4512,7 +4552,7 @@
       <c r="F41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="2">
         <v>457</v>
       </c>
       <c r="H41" s="1"/>
@@ -4544,7 +4584,7 @@
       <c r="F42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="2">
         <v>693</v>
       </c>
       <c r="H42" s="1"/>
@@ -4576,7 +4616,7 @@
       <c r="F43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="2">
         <v>753</v>
       </c>
       <c r="H43" s="1"/>
@@ -4608,7 +4648,7 @@
       <c r="F44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="2">
         <v>791</v>
       </c>
       <c r="H44" s="1"/>
@@ -4640,7 +4680,7 @@
       <c r="F45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="2">
         <v>365</v>
       </c>
       <c r="H45" s="1"/>
@@ -4672,7 +4712,7 @@
       <c r="F46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="2">
         <v>362</v>
       </c>
       <c r="H46" s="1"/>
@@ -4704,7 +4744,7 @@
       <c r="F47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="2">
         <v>1045</v>
       </c>
       <c r="H47" s="1"/>
@@ -4736,7 +4776,7 @@
       <c r="F48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="2">
         <v>1151</v>
       </c>
       <c r="H48" s="1"/>
@@ -4768,7 +4808,7 @@
       <c r="F49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="2">
         <v>164</v>
       </c>
       <c r="H49" s="1"/>
@@ -4800,7 +4840,7 @@
       <c r="F50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="2">
         <v>148</v>
       </c>
       <c r="H50" s="1"/>
@@ -4832,7 +4872,7 @@
       <c r="F51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="2">
         <v>203</v>
       </c>
       <c r="H51" s="1"/>
@@ -4864,7 +4904,7 @@
       <c r="F52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="2">
         <v>147</v>
       </c>
       <c r="H52" s="1"/>
@@ -4896,7 +4936,7 @@
       <c r="F53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="2">
         <v>104</v>
       </c>
       <c r="H53" s="1"/>
@@ -4928,7 +4968,7 @@
       <c r="F54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="2">
         <v>70</v>
       </c>
       <c r="H54" s="1"/>
@@ -4960,7 +5000,7 @@
       <c r="F55" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="2">
         <v>104</v>
       </c>
       <c r="H55" s="1"/>
@@ -4992,7 +5032,7 @@
       <c r="F56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="2">
         <v>99</v>
       </c>
       <c r="H56" s="1"/>
@@ -5024,7 +5064,7 @@
       <c r="F57" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="2">
         <v>519</v>
       </c>
       <c r="H57" s="1"/>
@@ -5056,7 +5096,7 @@
       <c r="F58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="2">
         <v>388</v>
       </c>
       <c r="H58" s="1"/>
@@ -5088,7 +5128,7 @@
       <c r="F59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="2">
         <v>90</v>
       </c>
       <c r="H59" s="1"/>
@@ -5120,7 +5160,7 @@
       <c r="F60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="2">
         <v>124</v>
       </c>
       <c r="H60" s="1"/>
@@ -5152,7 +5192,7 @@
       <c r="F61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="2">
         <v>111</v>
       </c>
       <c r="H61" s="1"/>
@@ -5184,7 +5224,7 @@
       <c r="F62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="2">
         <v>173</v>
       </c>
       <c r="H62" s="1"/>
@@ -5216,7 +5256,7 @@
       <c r="F63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="2">
         <v>202</v>
       </c>
       <c r="H63" s="1"/>
@@ -5248,7 +5288,7 @@
       <c r="F64" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="2">
         <v>180</v>
       </c>
       <c r="H64" s="1"/>
@@ -5280,7 +5320,7 @@
       <c r="F65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="2">
         <v>1185</v>
       </c>
       <c r="H65" s="1"/>
@@ -5312,7 +5352,7 @@
       <c r="F66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="2">
         <v>946</v>
       </c>
       <c r="H66" s="1"/>
@@ -5344,7 +5384,7 @@
       <c r="F67" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="2">
         <v>877</v>
       </c>
       <c r="H67" s="1"/>
@@ -5376,7 +5416,7 @@
       <c r="F68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="2">
         <v>348</v>
       </c>
       <c r="H68" s="1"/>
@@ -5408,7 +5448,7 @@
       <c r="F69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="2">
         <v>420</v>
       </c>
       <c r="H69" s="1"/>
@@ -5440,7 +5480,7 @@
       <c r="F70" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="2">
         <v>452</v>
       </c>
       <c r="H70" s="1"/>
@@ -5472,7 +5512,7 @@
       <c r="F71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="2">
         <v>591</v>
       </c>
       <c r="H71" s="1"/>
@@ -5504,7 +5544,7 @@
       <c r="F72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="2">
         <v>466</v>
       </c>
       <c r="H72" s="1"/>
@@ -5536,7 +5576,7 @@
       <c r="F73" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="2">
         <v>680</v>
       </c>
       <c r="H73" s="1"/>
@@ -5568,7 +5608,7 @@
       <c r="F74" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="2">
         <v>377</v>
       </c>
       <c r="H74" s="1"/>
@@ -5600,7 +5640,7 @@
       <c r="F75" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="2">
         <v>310</v>
       </c>
       <c r="H75" s="1"/>
@@ -5632,7 +5672,7 @@
       <c r="F76" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="2">
         <v>830</v>
       </c>
       <c r="H76" s="1"/>
@@ -5664,7 +5704,7 @@
       <c r="F77" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="2">
         <v>754</v>
       </c>
       <c r="H77" s="1"/>
@@ -5696,7 +5736,7 @@
       <c r="F78" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="2">
         <v>599</v>
       </c>
       <c r="H78" s="1"/>

--- a/ORTEST.xlsx
+++ b/ORTEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Ürün - Kısıt"/>
@@ -194,7 +194,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,12 +205,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -242,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -256,16 +250,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -581,27 +569,27 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="11.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -609,333 +597,333 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>88000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>133607.1</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>56000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>97755.90000000001</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>17000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>50421.8</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>17000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>38651.8</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>12000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>35827</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>12000</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>29651.600000000002</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>12000</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>23745.7</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>9000</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>22269.5</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>7000</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>21345.5</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>7000</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>20568.9</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>7000</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>20127.800000000003</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>7000</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>20059.600000000002</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>7000</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>17097.300000000003</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>7000</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>16854.2</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>9000</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>13182.400000000001</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>1500</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>11803.000000000002</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>4000</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>8983.7</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>1500</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>6717.700000000001</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>700</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>3946.8</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>300</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>3625.6000000000004</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>1300</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>2541</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>200</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>2333.1000000000004</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>300</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>1423.4</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>600</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>1325.5</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>200</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>1207.8000000000002</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>600</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>844.8000000000001</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>200</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>611.6</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="5">
         <v>500000000</v>
       </c>
     </row>
@@ -951,13 +939,13 @@
   </sheetPr>
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="12.290714285714287" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -967,7 +955,7 @@
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -978,7 +966,7 @@
       <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>368</v>
       </c>
     </row>
@@ -989,7 +977,7 @@
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>253</v>
       </c>
     </row>
@@ -1000,7 +988,7 @@
       <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>370</v>
       </c>
     </row>
@@ -1011,7 +999,7 @@
       <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>252</v>
       </c>
     </row>
@@ -1022,7 +1010,7 @@
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>247</v>
       </c>
     </row>
@@ -1033,7 +1021,7 @@
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>243</v>
       </c>
     </row>
@@ -1044,7 +1032,7 @@
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>633</v>
       </c>
     </row>
@@ -1055,8 +1043,8 @@
       <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="6">
-        <v>327</v>
+      <c r="C9" s="5">
+        <v>520</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -1066,8 +1054,8 @@
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="6">
-        <v>405</v>
+      <c r="C10" s="5">
+        <v>490</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -1077,7 +1065,7 @@
       <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>564</v>
       </c>
     </row>
@@ -1088,7 +1076,7 @@
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>739</v>
       </c>
     </row>
@@ -1099,7 +1087,7 @@
       <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>699</v>
       </c>
     </row>
@@ -1110,7 +1098,7 @@
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>654</v>
       </c>
     </row>
@@ -1121,7 +1109,7 @@
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>749</v>
       </c>
     </row>
@@ -1132,7 +1120,7 @@
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>728</v>
       </c>
     </row>
@@ -1143,7 +1131,7 @@
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>555</v>
       </c>
     </row>
@@ -1154,7 +1142,7 @@
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>409</v>
       </c>
     </row>
@@ -1165,7 +1153,7 @@
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>659</v>
       </c>
     </row>
@@ -1176,7 +1164,7 @@
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>653</v>
       </c>
     </row>
@@ -1187,7 +1175,7 @@
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>596</v>
       </c>
     </row>
@@ -1198,7 +1186,7 @@
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>436</v>
       </c>
     </row>
@@ -1209,7 +1197,7 @@
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>620</v>
       </c>
     </row>
@@ -1220,7 +1208,7 @@
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>866</v>
       </c>
     </row>
@@ -1231,7 +1219,7 @@
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>752</v>
       </c>
     </row>
@@ -1242,7 +1230,7 @@
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>545</v>
       </c>
     </row>
@@ -1253,7 +1241,7 @@
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>513</v>
       </c>
     </row>
@@ -1264,7 +1252,7 @@
       <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>726</v>
       </c>
     </row>
@@ -1275,7 +1263,7 @@
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>339</v>
       </c>
     </row>
@@ -1286,7 +1274,7 @@
       <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>326</v>
       </c>
     </row>
@@ -1297,7 +1285,7 @@
       <c r="B31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>329</v>
       </c>
     </row>
@@ -1308,7 +1296,7 @@
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>526</v>
       </c>
     </row>
@@ -1319,7 +1307,7 @@
       <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>643</v>
       </c>
     </row>
@@ -1330,7 +1318,7 @@
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>1223</v>
       </c>
     </row>
@@ -1341,7 +1329,7 @@
       <c r="B35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>878</v>
       </c>
     </row>
@@ -1352,7 +1340,7 @@
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>504</v>
       </c>
     </row>
@@ -1363,7 +1351,7 @@
       <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>655</v>
       </c>
     </row>
@@ -1374,7 +1362,7 @@
       <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>783</v>
       </c>
     </row>
@@ -1385,7 +1373,7 @@
       <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>509</v>
       </c>
     </row>
@@ -1396,7 +1384,7 @@
       <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>457</v>
       </c>
     </row>
@@ -1407,7 +1395,7 @@
       <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>693</v>
       </c>
     </row>
@@ -1418,7 +1406,7 @@
       <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>753</v>
       </c>
     </row>
@@ -1429,7 +1417,7 @@
       <c r="B43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>791</v>
       </c>
     </row>
@@ -1440,7 +1428,7 @@
       <c r="B44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>365</v>
       </c>
     </row>
@@ -1451,7 +1439,7 @@
       <c r="B45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>362</v>
       </c>
     </row>
@@ -1462,7 +1450,7 @@
       <c r="B46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>1045</v>
       </c>
     </row>
@@ -1473,7 +1461,7 @@
       <c r="B47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>1151</v>
       </c>
     </row>
@@ -1484,7 +1472,7 @@
       <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>164</v>
       </c>
     </row>
@@ -1495,7 +1483,7 @@
       <c r="B49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>148</v>
       </c>
     </row>
@@ -1506,7 +1494,7 @@
       <c r="B50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>203</v>
       </c>
     </row>
@@ -1517,7 +1505,7 @@
       <c r="B51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>147</v>
       </c>
     </row>
@@ -1528,7 +1516,7 @@
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>104</v>
       </c>
     </row>
@@ -1539,7 +1527,7 @@
       <c r="B53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>70</v>
       </c>
     </row>
@@ -1550,7 +1538,7 @@
       <c r="B54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>104</v>
       </c>
     </row>
@@ -1561,7 +1549,7 @@
       <c r="B55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>99</v>
       </c>
     </row>
@@ -1572,7 +1560,7 @@
       <c r="B56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>519</v>
       </c>
     </row>
@@ -1583,7 +1571,7 @@
       <c r="B57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>388</v>
       </c>
     </row>
@@ -1594,7 +1582,7 @@
       <c r="B58" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>90</v>
       </c>
     </row>
@@ -1605,7 +1593,7 @@
       <c r="B59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>124</v>
       </c>
     </row>
@@ -1616,7 +1604,7 @@
       <c r="B60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>111</v>
       </c>
     </row>
@@ -1627,7 +1615,7 @@
       <c r="B61" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>173</v>
       </c>
     </row>
@@ -1638,7 +1626,7 @@
       <c r="B62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>202</v>
       </c>
     </row>
@@ -1649,7 +1637,7 @@
       <c r="B63" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>180</v>
       </c>
     </row>
@@ -1660,7 +1648,7 @@
       <c r="B64" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>1185</v>
       </c>
     </row>
@@ -1671,7 +1659,7 @@
       <c r="B65" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>946</v>
       </c>
     </row>
@@ -1682,7 +1670,7 @@
       <c r="B66" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>877</v>
       </c>
     </row>
@@ -1693,7 +1681,7 @@
       <c r="B67" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>348</v>
       </c>
     </row>
@@ -1704,7 +1692,7 @@
       <c r="B68" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <v>420</v>
       </c>
     </row>
@@ -1715,7 +1703,7 @@
       <c r="B69" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <v>452</v>
       </c>
     </row>
@@ -1726,7 +1714,7 @@
       <c r="B70" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <v>591</v>
       </c>
     </row>
@@ -1737,7 +1725,7 @@
       <c r="B71" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <v>466</v>
       </c>
     </row>
@@ -1748,7 +1736,7 @@
       <c r="B72" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="5">
         <v>680</v>
       </c>
     </row>
@@ -1759,7 +1747,7 @@
       <c r="B73" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="5">
         <v>377</v>
       </c>
     </row>
@@ -1770,7 +1758,7 @@
       <c r="B74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="5">
         <v>310</v>
       </c>
     </row>
@@ -1781,7 +1769,7 @@
       <c r="B75" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="5">
         <v>500</v>
       </c>
     </row>
@@ -1792,7 +1780,7 @@
       <c r="B76" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="5">
         <v>502</v>
       </c>
     </row>
@@ -1803,7 +1791,7 @@
       <c r="B77" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="5">
         <v>440</v>
       </c>
     </row>
@@ -1825,17 +1813,17 @@
   <cols>
     <col min="1" max="1" style="3" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1846,7 +1834,7 @@
       <c r="B2" s="2">
         <v>8500</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>50000</v>
       </c>
     </row>
@@ -1857,7 +1845,7 @@
       <c r="B3" s="2">
         <v>6000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>45000</v>
       </c>
     </row>
@@ -1868,7 +1856,7 @@
       <c r="B4" s="2">
         <v>6500</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>105000</v>
       </c>
     </row>
@@ -1879,7 +1867,7 @@
       <c r="B5" s="2">
         <v>4850</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>40000</v>
       </c>
     </row>
@@ -1890,7 +1878,7 @@
       <c r="B6" s="2">
         <v>3000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>36000</v>
       </c>
     </row>
@@ -1901,7 +1889,7 @@
       <c r="B7" s="2">
         <v>4800</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>64550</v>
       </c>
     </row>
@@ -1912,7 +1900,7 @@
       <c r="B8" s="2">
         <v>3600</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>25300</v>
       </c>
     </row>
@@ -1923,7 +1911,7 @@
       <c r="B9" s="2">
         <v>2500</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>62890</v>
       </c>
     </row>
@@ -1934,7 +1922,7 @@
       <c r="B10" s="2">
         <v>2500</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>22500</v>
       </c>
     </row>
@@ -1945,7 +1933,7 @@
       <c r="B11" s="2">
         <v>2500</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>78000</v>
       </c>
     </row>
@@ -1956,7 +1944,7 @@
       <c r="B12" s="2">
         <v>4500</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>46000</v>
       </c>
     </row>
@@ -1967,7 +1955,7 @@
       <c r="B13" s="2">
         <v>4000</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>65000</v>
       </c>
     </row>
@@ -1978,7 +1966,7 @@
       <c r="B14" s="2">
         <v>3000</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>79250</v>
       </c>
     </row>
@@ -1989,7 +1977,7 @@
       <c r="B15" s="2">
         <v>3000</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>30000</v>
       </c>
     </row>
@@ -2000,7 +1988,7 @@
       <c r="B16" s="2">
         <v>3000</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>42650</v>
       </c>
     </row>
@@ -2011,7 +1999,7 @@
       <c r="B17" s="2">
         <v>3300</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>95500</v>
       </c>
     </row>
@@ -2039,7 +2027,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2276,11 +2264,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2291,102 +2279,102 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>95109</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>16219</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>61727</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>20211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>23310</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>5572</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>22109</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>4188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>13040</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2042</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>15434</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>3418</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>13113</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>3737</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>12542</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>4283</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>12195</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>2983</v>
       </c>
     </row>
@@ -2394,10 +2382,10 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>16962</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>6216</v>
       </c>
     </row>
@@ -2405,10 +2393,10 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>10467</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>3147</v>
       </c>
     </row>
@@ -2416,10 +2404,10 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>9586</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>1331</v>
       </c>
     </row>
@@ -2427,10 +2415,10 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>7805</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>1782</v>
       </c>
     </row>
@@ -2438,10 +2426,10 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>7143</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>2741</v>
       </c>
     </row>
@@ -2449,10 +2437,10 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>13069</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>7800</v>
       </c>
     </row>
@@ -2460,10 +2448,10 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>5623</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>106</v>
       </c>
     </row>
@@ -2471,10 +2459,10 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>3686</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>157</v>
       </c>
     </row>
@@ -2482,10 +2470,10 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>2556</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>686</v>
       </c>
     </row>
@@ -2493,10 +2481,10 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>1372</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>530</v>
       </c>
     </row>
@@ -2504,10 +2492,10 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>2460</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>1818</v>
       </c>
     </row>
@@ -2515,10 +2503,10 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>642</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>237</v>
       </c>
     </row>
@@ -2526,10 +2514,10 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>834</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>46</v>
       </c>
     </row>
@@ -2537,10 +2525,10 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>896</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>209</v>
       </c>
     </row>
@@ -2548,10 +2536,10 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>620</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>94</v>
       </c>
     </row>
@@ -2559,10 +2547,10 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>980</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>268</v>
       </c>
     </row>
@@ -2570,10 +2558,10 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>505</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>215</v>
       </c>
     </row>
@@ -2581,10 +2569,10 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>507</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>115</v>
       </c>
     </row>

--- a/ORTEST.xlsx
+++ b/ORTEST.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozca\OneDrive\Masaüstü\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E40E55-BE43-456E-9F7E-1B251104D07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Ürün - Kısıt"/>
-    <sheet r:id="rId2" sheetId="2" name="Ürün - Üretici"/>
-    <sheet r:id="rId3" sheetId="3" name="Üretici - Kapasite"/>
-    <sheet r:id="rId4" sheetId="4" name="Ürün - Fiyat"/>
-    <sheet r:id="rId5" sheetId="5" name="Ürün - Param"/>
-    <sheet r:id="rId6" sheetId="6" name="Ürün - Adet"/>
+    <sheet name="Ürün - Kısıt" sheetId="1" r:id="rId1"/>
+    <sheet name="Ürün - Üretici" sheetId="2" r:id="rId2"/>
+    <sheet name="Üretici - Kapasite" sheetId="3" r:id="rId3"/>
+    <sheet name="Ürün - Fiyat" sheetId="4" r:id="rId4"/>
+    <sheet name="Ürün - Param" sheetId="5" r:id="rId5"/>
+    <sheet name="Ürün - Adet" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">#REF!</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -192,8 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,44 +241,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -284,10 +286,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -325,71 +327,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,7 +419,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -440,11 +442,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -453,13 +455,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -469,7 +471,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -478,7 +480,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -487,7 +489,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -495,10 +497,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -563,367 +565,369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>88000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>133607.1</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>56000</v>
       </c>
-      <c r="C3" s="5">
-        <v>97755.90000000001</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="8" t="s">
+      <c r="C3" s="3">
+        <v>97755.900000000009</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>17000</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>50421.8</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="8" t="s">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>17000</v>
       </c>
-      <c r="C5" s="5">
-        <v>38651.8</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="8" t="s">
+      <c r="C5" s="3">
+        <v>38651.800000000003</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>12000</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>35827</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="8" t="s">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>12000</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>29651.600000000002</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="8" t="s">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>12000</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>23745.7</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="8" t="s">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>9000</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>22269.5</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="8" t="s">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>7000</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>21345.5</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="8" t="s">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>7000</v>
       </c>
-      <c r="C11" s="5">
-        <v>20568.9</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="8" t="s">
+      <c r="C11" s="3">
+        <v>20568.900000000001</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>7000</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>20127.800000000003</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="8" t="s">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>7000</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>20059.600000000002</v>
       </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="8" t="s">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>7000</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>17097.300000000003</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="8" t="s">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>7000</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>16854.2</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="8" t="s">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>9000</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>13182.400000000001</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="8" t="s">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>1500</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>11803.000000000002</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="8" t="s">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>4000</v>
       </c>
-      <c r="C18" s="5">
-        <v>8983.7</v>
-      </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="8" t="s">
+      <c r="C18" s="3">
+        <v>8983.7000000000007</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>1500</v>
       </c>
-      <c r="C19" s="5">
-        <v>6717.700000000001</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="8" t="s">
+      <c r="C19" s="3">
+        <v>6717.7000000000007</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>700</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>3946.8</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="8" t="s">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>300</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>3625.6000000000004</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="8" t="s">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>1300</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>2541</v>
       </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="8" t="s">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>200</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>2333.1000000000004</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="8" t="s">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>300</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>1423.4</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="8" t="s">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>600</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>1325.5</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="8" t="s">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>200</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>1207.8000000000002</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="8" t="s">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>600</v>
       </c>
-      <c r="C27" s="5">
-        <v>844.8000000000001</v>
-      </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="8" t="s">
+      <c r="C27" s="3">
+        <v>844.80000000000007</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>200</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>611.6</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3">
         <v>500000000</v>
       </c>
     </row>
@@ -933,865 +937,865 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>253</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>370</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>247</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>633</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>520</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>490</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>739</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>699</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>654</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>749</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>728</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>555</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>409</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>659</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>653</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>596</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>436</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>620</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>866</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>752</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>545</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>513</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>726</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>339</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>326</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>329</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>526</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>643</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>1223</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>878</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>504</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>655</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>783</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>509</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>693</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>753</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>791</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="3">
         <v>365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>362</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>1045</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <v>1151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="3">
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>203</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="3">
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="3">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="3">
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="3">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="3">
         <v>519</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="3">
         <v>388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="3">
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="3">
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="3">
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="3">
         <v>173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="3">
         <v>202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="3">
         <v>180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="3">
         <v>1185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="3">
         <v>946</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="3">
         <v>877</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="3">
         <v>348</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="3">
         <v>420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="3">
         <v>452</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="3">
         <v>591</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="3">
         <v>466</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="3">
         <v>680</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>49</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="3">
         <v>377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="3">
         <v>310</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="3">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="3">
         <v>502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="3">
         <v>440</v>
       </c>
     </row>
@@ -1801,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1809,197 +1813,197 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>8500</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>6000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>6500</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>4850</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>3000</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>4800</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>64550</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>3600</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>2500</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>62890</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>2500</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>2500</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>4500</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>4000</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>3000</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>79250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>3000</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>3000</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>42650</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>3300</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>95500</v>
       </c>
     </row>
@@ -2009,7 +2013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2017,233 +2021,233 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>850</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>1650</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>1800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>2600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>1300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>350</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>650</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>857</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>200</v>
       </c>
     </row>
@@ -2253,326 +2257,327 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>95109</v>
       </c>
-      <c r="C2" s="5">
-        <v>16219</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="3">
+        <v>27985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>61727</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>20211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>23310</v>
       </c>
-      <c r="C4" s="5">
-        <v>5572</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="3">
+        <v>9532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>22109</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>4188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>13040</v>
       </c>
-      <c r="C6" s="5">
-        <v>2042</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="3">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>15434</v>
       </c>
-      <c r="C7" s="5">
-        <v>3418</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="3">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>13113</v>
       </c>
-      <c r="C8" s="5">
-        <v>3737</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="3">
+        <v>7488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>12542</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>4283</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>12195</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>2983</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>16962</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>6216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>10467</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>3147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>9586</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>1331</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>7805</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>1782</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>7143</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>2741</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>13069</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>5623</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>3686</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>2556</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>686</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>1372</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>530</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>2460</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>1818</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>642</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>237</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>834</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>896</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>620</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>980</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>505</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>215</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>507</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>115</v>
       </c>
     </row>
@@ -2582,7 +2587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2590,573 +2595,569 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>2020</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>2021</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>2022</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>2023</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>83284</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>73375</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>119214</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>106056</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>93619</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>36699</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>46192</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>92758</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>75615</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>57373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>16023</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>17679</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>30238</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>24806</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>27804</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>21535</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>17036</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>28134</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>25476</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>18368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>10546</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>11638</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>14750</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>12216</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>16052</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>12783</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>13939</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>21957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>12868</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>15623</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>9915</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>8278</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>18922</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>14148</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>14302</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>7420</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>8753</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>19425</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>14484</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>12630</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>8553</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>10400</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>17488</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>12252</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>12286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>23570</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>8341</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>23408</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>18201</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>11290</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>7323</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>8449</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>9637</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>16374</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>10554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>7918</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>8194</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>10537</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>11352</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>9930</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>9425</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>8024</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>7734</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>4509</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>9337</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>3297</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>6125</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>6572</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>11684</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>8037</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>11150</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>4646</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>25678</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>17771</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>6104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>5700</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>5419</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>5704</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>5678</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>5614</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>3580</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>3541</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>3585</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>3959</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>3766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>2400</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>1920</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>1750</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>3351</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>3359</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1320</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>1095</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>1390</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>728</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>2328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>369</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>2229</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>5687</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>2814</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>1205</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>543</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>705</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>658</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>287</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>1018</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>776</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>840</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>902</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>790</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>862</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>889</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>871</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>1281</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>659</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>780</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>577</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>480</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>608</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>671</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>764</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>919</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>1057</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>880</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>1433</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>613</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>412</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>344</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>336</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>916</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>520</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>440</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>706</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>423</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>569</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>398</v>
       </c>
     </row>
